--- a/P0004/09_FICHAS/N3-FD-General.xlsx
+++ b/P0004/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28618"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0004/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5312" documentId="13_ncr:1_{EF794E9E-6F1A-4BEB-A1C5-7B22EC18A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EC105DF-9021-4BF5-931E-B33D56A61A0B}"/>
+  <xr:revisionPtr revIDLastSave="5313" documentId="13_ncr:1_{EF794E9E-6F1A-4BEB-A1C5-7B22EC18A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CE74E12-6216-4DF5-83A7-8233DE285A1E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$P$367</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -5502,7 +5502,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6320,11 +6320,11 @@
   <dimension ref="A1:Q367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="L2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.140625" style="23"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
@@ -6342,7 +6342,7 @@
     <col min="16" max="16" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="3" t="s">
         <v>16</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="3" t="s">
         <v>16</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="3" t="s">
         <v>16</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="2" t="s">
         <v>16</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="3" t="s">
         <v>16</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="2" t="s">
         <v>16</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="24" t="s">
         <v>16</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="2" t="s">
         <v>16</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="2" t="s">
         <v>16</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="2" t="s">
         <v>16</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="2" t="s">
         <v>16</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="2" t="s">
         <v>16</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="2" t="s">
         <v>16</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="2" t="s">
         <v>16</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="2" t="s">
         <v>16</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="2" t="s">
         <v>16</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="2" t="s">
         <v>16</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="2" t="s">
         <v>16</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="2" t="s">
         <v>16</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="2" t="s">
         <v>16</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="4" t="s">
         <v>16</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="4" t="s">
         <v>16</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="4" t="s">
         <v>16</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="4" t="s">
         <v>16</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" s="55" customFormat="1">
       <c r="A87" s="4" t="s">
         <v>16</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="4" t="s">
         <v>16</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="4" t="s">
         <v>16</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="4" t="s">
         <v>16</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="4" t="s">
         <v>16</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="4" t="s">
         <v>16</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" s="4" t="s">
         <v>16</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="4" t="s">
         <v>16</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" s="4" t="s">
         <v>16</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" s="4" t="s">
         <v>16</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" s="28" t="s">
         <v>16</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" s="61" customFormat="1">
       <c r="A98" s="12" t="s">
         <v>16</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" s="61" customFormat="1">
       <c r="A99" s="12" t="s">
         <v>16</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="100" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" s="61" customFormat="1">
       <c r="A100" s="12" t="s">
         <v>16</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="101" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" s="61" customFormat="1">
       <c r="A101" s="12" t="s">
         <v>16</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="102" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" s="61" customFormat="1">
       <c r="A102" s="12" t="s">
         <v>16</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="103" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="61" customFormat="1">
       <c r="A103" s="12" t="s">
         <v>16</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="61" customFormat="1">
       <c r="A104" s="12" t="s">
         <v>16</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="105" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" s="61" customFormat="1">
       <c r="A105" s="12" t="s">
         <v>16</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="106" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" s="61" customFormat="1">
       <c r="A106" s="12" t="s">
         <v>16</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="107" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" s="61" customFormat="1">
       <c r="A107" s="12" t="s">
         <v>16</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="108" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" s="61" customFormat="1">
       <c r="A108" s="12" t="s">
         <v>16</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" s="2" t="s">
         <v>16</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" s="26" t="s">
         <v>16</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="2" t="s">
         <v>16</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" s="2" t="s">
         <v>16</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" s="2" t="s">
         <v>16</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" s="2" t="s">
         <v>16</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" s="2" t="s">
         <v>16</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" s="2" t="s">
         <v>16</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" s="2" t="s">
         <v>16</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121" s="2" t="s">
         <v>16</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" s="61" customFormat="1">
       <c r="A122" s="12" t="s">
         <v>16</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" s="71" customFormat="1">
       <c r="A123" s="12" t="s">
         <v>16</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" s="61" customFormat="1">
       <c r="A124" s="12" t="s">
         <v>16</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" s="61" customFormat="1">
       <c r="A125" s="12" t="s">
         <v>16</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="126" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" s="61" customFormat="1">
       <c r="A126" s="12" t="s">
         <v>16</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" s="61" customFormat="1">
       <c r="A127" s="12" t="s">
         <v>16</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" s="61" customFormat="1">
       <c r="A128" s="31" t="s">
         <v>16</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="129" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" s="61" customFormat="1">
       <c r="A129" s="12" t="s">
         <v>16</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="130" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" s="61" customFormat="1">
       <c r="A130" s="12" t="s">
         <v>16</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="131" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" s="61" customFormat="1">
       <c r="A131" s="12" t="s">
         <v>16</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="132" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" s="61" customFormat="1">
       <c r="A132" s="12" t="s">
         <v>16</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="133" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" s="61" customFormat="1">
       <c r="A133" s="33" t="s">
         <v>16</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="134" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" s="61" customFormat="1">
       <c r="A134" s="12" t="s">
         <v>16</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="135" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" s="61" customFormat="1">
       <c r="A135" s="12" t="s">
         <v>16</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="136" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" s="61" customFormat="1">
       <c r="A136" s="12" t="s">
         <v>16</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="137" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" s="61" customFormat="1">
       <c r="A137" s="12" t="s">
         <v>16</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="138" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" s="61" customFormat="1">
       <c r="A138" s="12" t="s">
         <v>16</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="139" spans="1:17" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" s="71" customFormat="1">
       <c r="A139" s="12" t="s">
         <v>16</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="140" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" s="61" customFormat="1">
       <c r="A140" s="12" t="s">
         <v>16</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="141" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" s="61" customFormat="1">
       <c r="A141" s="12" t="s">
         <v>16</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="142" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" s="61" customFormat="1">
       <c r="A142" s="12" t="s">
         <v>16</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" s="61" customFormat="1">
       <c r="A143" s="12" t="s">
         <v>16</v>
       </c>
@@ -13486,7 +13486,7 @@
       </c>
       <c r="Q143" s="59"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17">
       <c r="A144" s="4" t="s">
         <v>16</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16">
       <c r="A145" s="4" t="s">
         <v>16</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="146" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" s="61" customFormat="1">
       <c r="A146" s="12" t="s">
         <v>16</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="147" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" s="61" customFormat="1">
       <c r="A147" s="12" t="s">
         <v>16</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16">
       <c r="A148" s="2" t="s">
         <v>16</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="149" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" s="78" customFormat="1">
       <c r="A149" s="3" t="s">
         <v>16</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="150" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" s="78" customFormat="1">
       <c r="A150" s="3" t="s">
         <v>16</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="151" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" s="78" customFormat="1">
       <c r="A151" s="3" t="s">
         <v>16</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16">
       <c r="A152" s="4" t="s">
         <v>16</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16">
       <c r="A153" s="4" t="s">
         <v>16</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16">
       <c r="A154" s="4" t="s">
         <v>16</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="155" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" s="78" customFormat="1">
       <c r="A155" s="11" t="s">
         <v>16</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="156" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" s="78" customFormat="1">
       <c r="A156" s="11" t="s">
         <v>16</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="157" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" s="78" customFormat="1">
       <c r="A157" s="11" t="s">
         <v>16</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="158" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" s="78" customFormat="1">
       <c r="A158" s="11" t="s">
         <v>16</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" s="78" customFormat="1">
       <c r="A159" s="11" t="s">
         <v>16</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="160" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" s="78" customFormat="1">
       <c r="A160" s="11" t="s">
         <v>16</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16">
       <c r="A161" s="1" t="s">
         <v>16</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16">
       <c r="A162" s="1" t="s">
         <v>16</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16">
       <c r="A166" s="1" t="s">
         <v>16</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16">
       <c r="A167" s="1" t="s">
         <v>16</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16">
       <c r="A169" s="1" t="s">
         <v>16</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16">
       <c r="A170" s="1" t="s">
         <v>16</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16">
       <c r="A171" s="1" t="s">
         <v>16</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16">
       <c r="A172" s="1" t="s">
         <v>16</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16">
       <c r="A173" s="1" t="s">
         <v>16</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16">
       <c r="A174" s="1" t="s">
         <v>16</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16">
       <c r="A175" s="1" t="s">
         <v>16</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16">
       <c r="A176" s="1" t="s">
         <v>16</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16">
       <c r="A177" s="1" t="s">
         <v>16</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16">
       <c r="A178" s="1" t="s">
         <v>16</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16">
       <c r="A179" s="1" t="s">
         <v>16</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16">
       <c r="A180" s="1" t="s">
         <v>16</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16">
       <c r="A181" s="1" t="s">
         <v>16</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16">
       <c r="A182" s="1" t="s">
         <v>16</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16">
       <c r="A183" s="1" t="s">
         <v>16</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16">
       <c r="A185" s="1" t="s">
         <v>16</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16">
       <c r="A186" s="1" t="s">
         <v>16</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16">
       <c r="A187" s="1" t="s">
         <v>16</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16">
       <c r="A188" s="1" t="s">
         <v>16</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16">
       <c r="A189" s="1" t="s">
         <v>16</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16">
       <c r="A190" s="1" t="s">
         <v>16</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16">
       <c r="A191" s="1" t="s">
         <v>16</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16">
       <c r="A192" s="82" t="s">
         <v>16</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16">
       <c r="A193" s="1" t="s">
         <v>16</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16">
       <c r="A194" s="1" t="s">
         <v>16</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16">
       <c r="A195" s="1" t="s">
         <v>16</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16">
       <c r="A196" s="1" t="s">
         <v>16</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16">
       <c r="A197" s="1" t="s">
         <v>16</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16">
       <c r="A198" s="1" t="s">
         <v>16</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16">
       <c r="A199" s="1" t="s">
         <v>16</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16">
       <c r="A202" s="1" t="s">
         <v>16</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16">
       <c r="A203" s="1" t="s">
         <v>16</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16">
       <c r="A204" s="1" t="s">
         <v>16</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16">
       <c r="A205" s="1" t="s">
         <v>16</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16">
       <c r="A206" s="1" t="s">
         <v>16</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16">
       <c r="A207" s="1" t="s">
         <v>16</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16">
       <c r="A208" s="1" t="s">
         <v>16</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16">
       <c r="A209" s="1" t="s">
         <v>16</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16">
       <c r="A210" s="1" t="s">
         <v>16</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16">
       <c r="A211" s="1" t="s">
         <v>16</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="212" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" s="78" customFormat="1">
       <c r="A212" s="46" t="s">
         <v>16</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="213" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" s="78" customFormat="1">
       <c r="A213" s="46" t="s">
         <v>16</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="214" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" s="78" customFormat="1">
       <c r="A214" s="46" t="s">
         <v>16</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="215" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" s="78" customFormat="1">
       <c r="A215" s="46" t="s">
         <v>16</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16">
       <c r="A216" s="41" t="s">
         <v>16</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16">
       <c r="A217" s="1" t="s">
         <v>16</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16">
       <c r="A218" s="89" t="s">
         <v>16</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16">
       <c r="A219" s="41" t="s">
         <v>16</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16">
       <c r="A220" s="41" t="s">
         <v>16</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16">
       <c r="A221" s="41" t="s">
         <v>16</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16">
       <c r="A222" s="41" t="s">
         <v>16</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16">
       <c r="A223" s="41" t="s">
         <v>16</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16">
       <c r="A224" s="41" t="s">
         <v>16</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="225" spans="1:16" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" s="95" customFormat="1">
       <c r="A225" s="41" t="s">
         <v>16</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16">
       <c r="A226" s="41" t="s">
         <v>16</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16">
       <c r="A227" s="41" t="s">
         <v>16</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16">
       <c r="A228" s="41" t="s">
         <v>16</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16">
       <c r="A229" s="41" t="s">
         <v>16</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16">
       <c r="A230" s="41" t="s">
         <v>16</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16">
       <c r="A231" s="41" t="s">
         <v>16</v>
       </c>
@@ -17878,7 +17878,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16">
       <c r="A232" s="41" t="s">
         <v>16</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16">
       <c r="A233" s="41" t="s">
         <v>16</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16">
       <c r="A234" s="41" t="s">
         <v>16</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16">
       <c r="A235" s="41" t="s">
         <v>16</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16">
       <c r="A236" s="41" t="s">
         <v>16</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16">
       <c r="A237" s="41" t="s">
         <v>16</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16">
       <c r="A238" s="41" t="s">
         <v>16</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16">
       <c r="A239" s="41" t="s">
         <v>16</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16">
       <c r="A240" s="41" t="s">
         <v>16</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="241" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" s="61" customFormat="1">
       <c r="A241" s="59" t="s">
         <v>16</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="242" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" s="61" customFormat="1">
       <c r="A242" s="59" t="s">
         <v>16</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="243" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" s="61" customFormat="1">
       <c r="A243" s="59" t="s">
         <v>16</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="244" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" s="61" customFormat="1">
       <c r="A244" s="59" t="s">
         <v>16</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="245" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" s="61" customFormat="1">
       <c r="A245" s="59" t="s">
         <v>16</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="246" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" s="61" customFormat="1">
       <c r="A246" s="59" t="s">
         <v>16</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="247" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" s="61" customFormat="1">
       <c r="A247" s="59" t="s">
         <v>16</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="248" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" s="61" customFormat="1">
       <c r="A248" s="59" t="s">
         <v>16</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="249" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" s="61" customFormat="1">
       <c r="A249" s="59" t="s">
         <v>16</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="250" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" s="61" customFormat="1">
       <c r="A250" s="59" t="s">
         <v>16</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="251" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" s="61" customFormat="1">
       <c r="A251" s="59" t="s">
         <v>16</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" s="61" customFormat="1">
       <c r="A252" s="59" t="s">
         <v>16</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="253" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" s="61" customFormat="1">
       <c r="A253" s="59" t="s">
         <v>16</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="254" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" s="61" customFormat="1">
       <c r="A254" s="59" t="s">
         <v>16</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="255" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" s="61" customFormat="1">
       <c r="A255" s="59" t="s">
         <v>16</v>
       </c>
@@ -19078,7 +19078,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" s="61" customFormat="1">
       <c r="A256" s="59" t="s">
         <v>16</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="257" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" s="61" customFormat="1">
       <c r="A257" s="59" t="s">
         <v>16</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="258" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" s="61" customFormat="1">
       <c r="A258" s="59" t="s">
         <v>16</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="259" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" s="61" customFormat="1">
       <c r="A259" s="59" t="s">
         <v>16</v>
       </c>
@@ -19278,7 +19278,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="260" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" s="61" customFormat="1">
       <c r="A260" s="59" t="s">
         <v>16</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="261" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" s="61" customFormat="1">
       <c r="A261" s="59" t="s">
         <v>16</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="262" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" s="61" customFormat="1">
       <c r="A262" s="59" t="s">
         <v>16</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="263" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" s="61" customFormat="1">
       <c r="A263" s="59" t="s">
         <v>16</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="264" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" s="61" customFormat="1">
       <c r="A264" s="59" t="s">
         <v>16</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="265" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" s="61" customFormat="1">
       <c r="A265" s="59" t="s">
         <v>16</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="266" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" s="61" customFormat="1">
       <c r="A266" s="59" t="s">
         <v>16</v>
       </c>
@@ -19628,7 +19628,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="267" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" s="61" customFormat="1">
       <c r="A267" s="59" t="s">
         <v>16</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="268" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" s="61" customFormat="1">
       <c r="A268" s="59" t="s">
         <v>16</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="269" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" s="61" customFormat="1">
       <c r="A269" s="59" t="s">
         <v>16</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="270" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" s="61" customFormat="1">
       <c r="A270" s="59" t="s">
         <v>16</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="271" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" s="78" customFormat="1">
       <c r="A271" s="46" t="s">
         <v>16</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="272" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" s="78" customFormat="1">
       <c r="A272" s="46" t="s">
         <v>16</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="273" spans="1:17" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" s="78" customFormat="1">
       <c r="A273" s="46" t="s">
         <v>16</v>
       </c>
@@ -19978,7 +19978,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="274" spans="1:17" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" s="78" customFormat="1">
       <c r="A274" s="46" t="s">
         <v>16</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="275" spans="1:17" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" s="78" customFormat="1">
       <c r="A275" s="46" t="s">
         <v>16</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="276" spans="1:17" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" s="78" customFormat="1">
       <c r="A276" s="46" t="s">
         <v>16</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="277" spans="1:17" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" s="78" customFormat="1">
       <c r="A277" s="46" t="s">
         <v>16</v>
       </c>
@@ -20178,7 +20178,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="278" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" s="61" customFormat="1">
       <c r="A278" s="59" t="s">
         <v>16</v>
       </c>
@@ -20229,7 +20229,7 @@
       </c>
       <c r="Q278" s="59"/>
     </row>
-    <row r="279" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" s="61" customFormat="1">
       <c r="A279" s="59" t="s">
         <v>16</v>
       </c>
@@ -20279,7 +20279,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="280" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" s="61" customFormat="1">
       <c r="A280" s="59" t="s">
         <v>16</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="281" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" s="61" customFormat="1">
       <c r="A281" s="59" t="s">
         <v>16</v>
       </c>
@@ -20379,7 +20379,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="282" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" s="61" customFormat="1">
       <c r="A282" s="59" t="s">
         <v>16</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="283" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" s="61" customFormat="1">
       <c r="A283" s="59" t="s">
         <v>16</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="284" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" s="61" customFormat="1">
       <c r="A284" s="59" t="s">
         <v>16</v>
       </c>
@@ -20529,7 +20529,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="285" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" s="61" customFormat="1">
       <c r="A285" s="59" t="s">
         <v>16</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="286" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" s="61" customFormat="1">
       <c r="A286" s="59" t="s">
         <v>16</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="287" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" s="61" customFormat="1">
       <c r="A287" s="59" t="s">
         <v>16</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="288" spans="1:17" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" s="61" customFormat="1">
       <c r="A288" s="59" t="s">
         <v>16</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="289" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" s="61" customFormat="1">
       <c r="A289" s="59" t="s">
         <v>16</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="290" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" s="61" customFormat="1">
       <c r="A290" s="59" t="s">
         <v>16</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="291" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" s="61" customFormat="1">
       <c r="A291" s="59" t="s">
         <v>16</v>
       </c>
@@ -20879,7 +20879,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="292" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" s="61" customFormat="1">
       <c r="A292" s="59" t="s">
         <v>16</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="293" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" s="61" customFormat="1">
       <c r="A293" s="59" t="s">
         <v>16</v>
       </c>
@@ -20979,7 +20979,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="294" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" s="61" customFormat="1">
       <c r="A294" s="59" t="s">
         <v>16</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="295" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" s="61" customFormat="1">
       <c r="A295" s="59" t="s">
         <v>16</v>
       </c>
@@ -21079,7 +21079,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="296" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" s="61" customFormat="1">
       <c r="A296" s="59" t="s">
         <v>16</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="297" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" s="61" customFormat="1">
       <c r="A297" s="59" t="s">
         <v>16</v>
       </c>
@@ -21179,7 +21179,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="298" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" s="61" customFormat="1">
       <c r="A298" s="59" t="s">
         <v>16</v>
       </c>
@@ -21229,7 +21229,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16">
       <c r="A299" s="41" t="s">
         <v>16</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16">
       <c r="A300" s="41" t="s">
         <v>16</v>
       </c>
@@ -21329,7 +21329,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16">
       <c r="A301" s="41" t="s">
         <v>16</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16">
       <c r="A302" s="41" t="s">
         <v>16</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16">
       <c r="A303" s="41" t="s">
         <v>16</v>
       </c>
@@ -21479,7 +21479,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16">
       <c r="A304" s="41" t="s">
         <v>16</v>
       </c>
@@ -21529,7 +21529,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16">
       <c r="A305" s="41" t="s">
         <v>16</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16">
       <c r="A306" s="41" t="s">
         <v>16</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16">
       <c r="A307" s="41" t="s">
         <v>16</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16">
       <c r="A308" s="1" t="s">
         <v>16</v>
       </c>
@@ -21729,7 +21729,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16">
       <c r="A309" s="1" t="s">
         <v>16</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16">
       <c r="A310" s="1" t="s">
         <v>16</v>
       </c>
@@ -21829,7 +21829,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16">
       <c r="A311" s="1" t="s">
         <v>16</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16">
       <c r="A312" s="1" t="s">
         <v>16</v>
       </c>
@@ -21929,7 +21929,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="313" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" s="78" customFormat="1">
       <c r="A313" s="46" t="s">
         <v>16</v>
       </c>
@@ -21979,7 +21979,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="314" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" s="78" customFormat="1">
       <c r="A314" s="46" t="s">
         <v>16</v>
       </c>
@@ -22029,7 +22029,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="315" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" s="78" customFormat="1">
       <c r="A315" s="46" t="s">
         <v>16</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="316" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" s="78" customFormat="1">
       <c r="A316" s="46" t="s">
         <v>16</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="317" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" s="78" customFormat="1">
       <c r="A317" s="46" t="s">
         <v>16</v>
       </c>
@@ -22179,7 +22179,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="318" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" s="78" customFormat="1">
       <c r="A318" s="46" t="s">
         <v>16</v>
       </c>
@@ -22229,7 +22229,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="319" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" s="78" customFormat="1">
       <c r="A319" s="46" t="s">
         <v>16</v>
       </c>
@@ -22279,7 +22279,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="320" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" s="78" customFormat="1">
       <c r="A320" s="46" t="s">
         <v>16</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="321" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" s="78" customFormat="1">
       <c r="A321" s="46" t="s">
         <v>16</v>
       </c>
@@ -22379,7 +22379,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="322" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" s="78" customFormat="1">
       <c r="A322" s="46" t="s">
         <v>16</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="323" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" s="78" customFormat="1">
       <c r="A323" s="46" t="s">
         <v>16</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="324" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" s="78" customFormat="1">
       <c r="A324" s="46" t="s">
         <v>16</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="325" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" s="78" customFormat="1">
       <c r="A325" s="46" t="s">
         <v>16</v>
       </c>
@@ -22579,7 +22579,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="326" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" s="78" customFormat="1">
       <c r="A326" s="46" t="s">
         <v>16</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="327" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" s="78" customFormat="1">
       <c r="A327" s="46" t="s">
         <v>16</v>
       </c>
@@ -22679,7 +22679,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="328" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" s="78" customFormat="1">
       <c r="A328" s="46" t="s">
         <v>16</v>
       </c>
@@ -22729,7 +22729,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="329" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" s="78" customFormat="1">
       <c r="A329" s="46" t="s">
         <v>16</v>
       </c>
@@ -22779,7 +22779,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="330" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" s="78" customFormat="1">
       <c r="A330" s="46" t="s">
         <v>16</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="331" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" s="78" customFormat="1">
       <c r="A331" s="46" t="s">
         <v>16</v>
       </c>
@@ -22879,7 +22879,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16">
       <c r="A332" s="5" t="s">
         <v>16</v>
       </c>
@@ -22929,7 +22929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16">
       <c r="A333" s="5" t="s">
         <v>16</v>
       </c>
@@ -22979,7 +22979,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16">
       <c r="A334" s="5" t="s">
         <v>16</v>
       </c>
@@ -23029,7 +23029,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16">
       <c r="A335" s="8" t="s">
         <v>16</v>
       </c>
@@ -23079,7 +23079,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="336" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" s="78" customFormat="1">
       <c r="A336" s="9" t="s">
         <v>16</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="337" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" s="78" customFormat="1">
       <c r="A337" s="9" t="s">
         <v>16</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="338" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" s="78" customFormat="1">
       <c r="A338" s="9" t="s">
         <v>16</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="339" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" s="78" customFormat="1">
       <c r="A339" s="9" t="s">
         <v>16</v>
       </c>
@@ -23279,7 +23279,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="340" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" s="78" customFormat="1">
       <c r="A340" s="9" t="s">
         <v>16</v>
       </c>
@@ -23329,7 +23329,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="341" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" s="78" customFormat="1">
       <c r="A341" s="9" t="s">
         <v>16</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="342" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" s="78" customFormat="1">
       <c r="A342" s="9" t="s">
         <v>16</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="343" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" s="78" customFormat="1">
       <c r="A343" s="9" t="s">
         <v>16</v>
       </c>
@@ -23479,7 +23479,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="344" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" s="78" customFormat="1">
       <c r="A344" s="9" t="s">
         <v>16</v>
       </c>
@@ -23529,7 +23529,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="345" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" s="78" customFormat="1">
       <c r="A345" s="9" t="s">
         <v>16</v>
       </c>
@@ -23579,7 +23579,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="346" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" s="78" customFormat="1">
       <c r="A346" s="9" t="s">
         <v>16</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="347" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" s="78" customFormat="1">
       <c r="A347" s="9" t="s">
         <v>16</v>
       </c>
@@ -23679,7 +23679,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="348" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" s="78" customFormat="1">
       <c r="A348" s="9" t="s">
         <v>16</v>
       </c>
@@ -23729,7 +23729,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="349" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" s="78" customFormat="1">
       <c r="A349" s="9" t="s">
         <v>16</v>
       </c>
@@ -23779,7 +23779,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="350" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" s="78" customFormat="1">
       <c r="A350" s="9" t="s">
         <v>16</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="351" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" s="78" customFormat="1">
       <c r="A351" s="9" t="s">
         <v>16</v>
       </c>
@@ -23879,7 +23879,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="352" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" s="78" customFormat="1">
       <c r="A352" s="9" t="s">
         <v>16</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="353" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" s="78" customFormat="1">
       <c r="A353" s="9" t="s">
         <v>16</v>
       </c>
@@ -23979,7 +23979,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="354" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" s="78" customFormat="1">
       <c r="A354" s="9" t="s">
         <v>16</v>
       </c>
@@ -24029,7 +24029,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="355" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" s="78" customFormat="1">
       <c r="A355" s="9" t="s">
         <v>16</v>
       </c>
@@ -24079,7 +24079,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="356" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" s="78" customFormat="1">
       <c r="A356" s="9" t="s">
         <v>16</v>
       </c>
@@ -24129,7 +24129,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="357" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" s="78" customFormat="1">
       <c r="A357" s="9" t="s">
         <v>16</v>
       </c>
@@ -24179,7 +24179,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="358" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" s="78" customFormat="1">
       <c r="A358" s="9" t="s">
         <v>16</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="359" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" s="78" customFormat="1">
       <c r="A359" s="9" t="s">
         <v>16</v>
       </c>
@@ -24279,7 +24279,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16">
       <c r="A360" t="s">
         <v>16</v>
       </c>
@@ -24329,7 +24329,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16">
       <c r="A361" t="s">
         <v>16</v>
       </c>
@@ -24379,7 +24379,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16">
       <c r="A362" t="s">
         <v>16</v>
       </c>
@@ -24429,7 +24429,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16">
       <c r="A363" t="s">
         <v>16</v>
       </c>
@@ -24479,7 +24479,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16">
       <c r="A364" t="s">
         <v>16</v>
       </c>
@@ -24529,7 +24529,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16">
       <c r="A365" t="s">
         <v>16</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16">
       <c r="A366" t="s">
         <v>16</v>
       </c>
@@ -24629,7 +24629,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16">
       <c r="A367" s="41" t="s">
         <v>16</v>
       </c>
@@ -24680,6 +24680,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -24694,9 +24695,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1">
         <v>2021</v>
       </c>
